--- a/필기/Oracle/project_code/테이블 명세서 양식-윤율-.xlsx
+++ b/필기/Oracle/project_code/테이블 명세서 양식-윤율-.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.53\240805\일일과제\08월28일\데이터베이스 설계 미니프로젝트\요이땅~\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\20240805\Java\JavaTutorial\src\필기\Oracle\project_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>데이터 베이스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>travel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +335,10 @@
   </si>
   <si>
     <t>Spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,6 +612,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,30 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -976,80 +964,80 @@
   <sheetData>
     <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1061,34 +1049,28 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
@@ -1117,157 +1099,145 @@
     </row>
     <row r="15" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="G16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="19" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>80</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1275,155 +1245,155 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="B18:J18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
